--- a/natmiOut/OldD4/LR-pairs_lrc2p/Adam15-Itga5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Adam15-Itga5.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.4120795377687</v>
+        <v>46.70430066666666</v>
       </c>
       <c r="H2">
-        <v>43.4120795377687</v>
+        <v>140.112902</v>
       </c>
       <c r="I2">
-        <v>0.4205468815077022</v>
+        <v>0.4277960227396158</v>
       </c>
       <c r="J2">
-        <v>0.4205468815077022</v>
+        <v>0.4350095176968582</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N2">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O2">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P2">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q2">
-        <v>1128.299243173985</v>
+        <v>1551.117172741561</v>
       </c>
       <c r="R2">
-        <v>1128.299243173985</v>
+        <v>13960.05455467405</v>
       </c>
       <c r="S2">
-        <v>0.0794756068253519</v>
+        <v>0.09051316219203531</v>
       </c>
       <c r="T2">
-        <v>0.0794756068253519</v>
+        <v>0.09462682647628889</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.4120795377687</v>
+        <v>46.70430066666666</v>
       </c>
       <c r="H3">
-        <v>43.4120795377687</v>
+        <v>140.112902</v>
       </c>
       <c r="I3">
-        <v>0.4205468815077022</v>
+        <v>0.4277960227396158</v>
       </c>
       <c r="J3">
-        <v>0.4205468815077022</v>
+        <v>0.4350095176968582</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N3">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P3">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q3">
-        <v>2029.216348730941</v>
+        <v>2390.057527254966</v>
       </c>
       <c r="R3">
-        <v>2029.216348730941</v>
+        <v>21510.5177452947</v>
       </c>
       <c r="S3">
-        <v>0.1429347769849101</v>
+        <v>0.1394682931853322</v>
       </c>
       <c r="T3">
-        <v>0.1429347769849101</v>
+        <v>0.145806882210043</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.4120795377687</v>
+        <v>46.70430066666666</v>
       </c>
       <c r="H4">
-        <v>43.4120795377687</v>
+        <v>140.112902</v>
       </c>
       <c r="I4">
-        <v>0.4205468815077022</v>
+        <v>0.4277960227396158</v>
       </c>
       <c r="J4">
-        <v>0.4205468815077022</v>
+        <v>0.4350095176968582</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N4">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O4">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P4">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q4">
-        <v>894.2265112851077</v>
+        <v>1036.578772395435</v>
       </c>
       <c r="R4">
-        <v>894.2265112851077</v>
+        <v>9329.20895155892</v>
       </c>
       <c r="S4">
-        <v>0.06298789532445193</v>
+        <v>0.0604880303045174</v>
       </c>
       <c r="T4">
-        <v>0.06298789532445193</v>
+        <v>0.06323710506737479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.4120795377687</v>
+        <v>46.70430066666666</v>
       </c>
       <c r="H5">
-        <v>43.4120795377687</v>
+        <v>140.112902</v>
       </c>
       <c r="I5">
-        <v>0.4205468815077022</v>
+        <v>0.4277960227396158</v>
       </c>
       <c r="J5">
-        <v>0.4205468815077022</v>
+        <v>0.4350095176968582</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N5">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O5">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P5">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q5">
-        <v>1472.326464625661</v>
+        <v>1751.979261568507</v>
       </c>
       <c r="R5">
-        <v>1472.326464625661</v>
+        <v>15767.81335411657</v>
       </c>
       <c r="S5">
-        <v>0.103708337951181</v>
+        <v>0.102234174081866</v>
       </c>
       <c r="T5">
-        <v>0.103708337951181</v>
+        <v>0.1068805377748996</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>43.4120795377687</v>
+        <v>46.70430066666666</v>
       </c>
       <c r="H6">
-        <v>43.4120795377687</v>
+        <v>140.112902</v>
       </c>
       <c r="I6">
-        <v>0.4205468815077022</v>
+        <v>0.4277960227396158</v>
       </c>
       <c r="J6">
-        <v>0.4205468815077022</v>
+        <v>0.4350095176968582</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N6">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O6">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P6">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q6">
-        <v>446.3511254499701</v>
+        <v>601.375153908101</v>
       </c>
       <c r="R6">
-        <v>446.3511254499701</v>
+        <v>3608.250923448606</v>
       </c>
       <c r="S6">
-        <v>0.03144026442180729</v>
+        <v>0.03509236297586486</v>
       </c>
       <c r="T6">
-        <v>0.03144026442180729</v>
+        <v>0.02445816616825195</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.294335073952</v>
+        <v>14.05160533333333</v>
       </c>
       <c r="H7">
-        <v>13.294335073952</v>
+        <v>42.154816</v>
       </c>
       <c r="I7">
-        <v>0.1287865316888329</v>
+        <v>0.1287080801746603</v>
       </c>
       <c r="J7">
-        <v>0.1287865316888329</v>
+        <v>0.1308783553477452</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N7">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O7">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P7">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q7">
-        <v>345.5256776951068</v>
+        <v>466.6740755348906</v>
       </c>
       <c r="R7">
-        <v>345.5256776951068</v>
+        <v>4200.066679814016</v>
       </c>
       <c r="S7">
-        <v>0.02433828000390236</v>
+        <v>0.02723207958238854</v>
       </c>
       <c r="T7">
-        <v>0.02433828000390236</v>
+        <v>0.02846972978100109</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.294335073952</v>
+        <v>14.05160533333333</v>
       </c>
       <c r="H8">
-        <v>13.294335073952</v>
+        <v>42.154816</v>
       </c>
       <c r="I8">
-        <v>0.1287865316888329</v>
+        <v>0.1287080801746603</v>
       </c>
       <c r="J8">
-        <v>0.1287865316888329</v>
+        <v>0.1308783553477452</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N8">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P8">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q8">
-        <v>621.418793220914</v>
+        <v>719.0803548615964</v>
       </c>
       <c r="R8">
-        <v>621.418793220914</v>
+        <v>6471.723193754367</v>
       </c>
       <c r="S8">
-        <v>0.0437717529127992</v>
+        <v>0.0419608769295331</v>
       </c>
       <c r="T8">
-        <v>0.0437717529127992</v>
+        <v>0.04386792510441356</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.294335073952</v>
+        <v>14.05160533333333</v>
       </c>
       <c r="H9">
-        <v>13.294335073952</v>
+        <v>42.154816</v>
       </c>
       <c r="I9">
-        <v>0.1287865316888329</v>
+        <v>0.1287080801746603</v>
       </c>
       <c r="J9">
-        <v>0.1287865316888329</v>
+        <v>0.1308783553477452</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N9">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O9">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P9">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q9">
-        <v>273.844215702512</v>
+        <v>311.8684060932195</v>
       </c>
       <c r="R9">
-        <v>273.844215702512</v>
+        <v>2806.815654838975</v>
       </c>
       <c r="S9">
-        <v>0.01928915165922315</v>
+        <v>0.01819862233450389</v>
       </c>
       <c r="T9">
-        <v>0.01928915165922315</v>
+        <v>0.01902571776357791</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.294335073952</v>
+        <v>14.05160533333333</v>
       </c>
       <c r="H10">
-        <v>13.294335073952</v>
+        <v>42.154816</v>
       </c>
       <c r="I10">
-        <v>0.1287865316888329</v>
+        <v>0.1287080801746603</v>
       </c>
       <c r="J10">
-        <v>0.1287865316888329</v>
+        <v>0.1308783553477452</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N10">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O10">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P10">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q10">
-        <v>450.8791462512537</v>
+        <v>527.1060862563271</v>
       </c>
       <c r="R10">
-        <v>450.8791462512537</v>
+        <v>4743.954776306944</v>
       </c>
       <c r="S10">
-        <v>0.03175921101605254</v>
+        <v>0.03075850072203222</v>
       </c>
       <c r="T10">
-        <v>0.03175921101605254</v>
+        <v>0.03215642056919171</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.294335073952</v>
+        <v>14.05160533333333</v>
       </c>
       <c r="H11">
-        <v>13.294335073952</v>
+        <v>42.154816</v>
       </c>
       <c r="I11">
-        <v>0.1287865316888329</v>
+        <v>0.1287080801746603</v>
       </c>
       <c r="J11">
-        <v>0.1287865316888329</v>
+        <v>0.1308783553477452</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N11">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O11">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P11">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q11">
-        <v>136.6887162639821</v>
+        <v>180.931652960608</v>
       </c>
       <c r="R11">
-        <v>136.6887162639821</v>
+        <v>1085.589917763648</v>
       </c>
       <c r="S11">
-        <v>0.009628136096855618</v>
+        <v>0.01055800060620253</v>
       </c>
       <c r="T11">
-        <v>0.009628136096855618</v>
+        <v>0.007358562129560958</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.9286208728878</v>
+        <v>15.248849</v>
       </c>
       <c r="H12">
-        <v>14.9286208728878</v>
+        <v>45.746547</v>
       </c>
       <c r="I12">
-        <v>0.1446183877886271</v>
+        <v>0.1396744381232708</v>
       </c>
       <c r="J12">
-        <v>0.1446183877886271</v>
+        <v>0.1420296279836289</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N12">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O12">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P12">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q12">
-        <v>388.0014920238122</v>
+        <v>506.4362641302579</v>
       </c>
       <c r="R12">
-        <v>388.0014920238122</v>
+        <v>4557.926377172322</v>
       </c>
       <c r="S12">
-        <v>0.02733020890893158</v>
+        <v>0.02955234364024925</v>
       </c>
       <c r="T12">
-        <v>0.02733020890893158</v>
+        <v>0.03089544576600373</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.9286208728878</v>
+        <v>15.248849</v>
       </c>
       <c r="H13">
-        <v>14.9286208728878</v>
+        <v>45.746547</v>
       </c>
       <c r="I13">
-        <v>0.1446183877886271</v>
+        <v>0.1396744381232708</v>
       </c>
       <c r="J13">
-        <v>0.1446183877886271</v>
+        <v>0.1420296279836289</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N13">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O13">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P13">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q13">
-        <v>697.810421933704</v>
+        <v>780.3484007723507</v>
       </c>
       <c r="R13">
-        <v>697.810421933704</v>
+        <v>7023.135606951157</v>
       </c>
       <c r="S13">
-        <v>0.04915265792098395</v>
+        <v>0.04553608367352622</v>
       </c>
       <c r="T13">
-        <v>0.04915265792098395</v>
+        <v>0.0476056187170058</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.9286208728878</v>
+        <v>15.248849</v>
       </c>
       <c r="H14">
-        <v>14.9286208728878</v>
+        <v>45.746547</v>
       </c>
       <c r="I14">
-        <v>0.1446183877886271</v>
+        <v>0.1396744381232708</v>
       </c>
       <c r="J14">
-        <v>0.1446183877886271</v>
+        <v>0.1420296279836289</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N14">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O14">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P14">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q14">
-        <v>307.5081567987618</v>
+        <v>338.4406350429463</v>
       </c>
       <c r="R14">
-        <v>307.5081567987618</v>
+        <v>3045.965715386516</v>
       </c>
       <c r="S14">
-        <v>0.0216603862079862</v>
+        <v>0.01974920568887389</v>
       </c>
       <c r="T14">
-        <v>0.0216603862079862</v>
+        <v>0.0206467724086437</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.9286208728878</v>
+        <v>15.248849</v>
       </c>
       <c r="H15">
-        <v>14.9286208728878</v>
+        <v>45.746547</v>
       </c>
       <c r="I15">
-        <v>0.1446183877886271</v>
+        <v>0.1396744381232708</v>
       </c>
       <c r="J15">
-        <v>0.1446183877886271</v>
+        <v>0.1420296279836289</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N15">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O15">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P15">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q15">
-        <v>506.3061669826993</v>
+        <v>572.0172838356386</v>
       </c>
       <c r="R15">
-        <v>506.3061669826993</v>
+        <v>5148.155554520748</v>
       </c>
       <c r="S15">
-        <v>0.0356634023321445</v>
+        <v>0.03337922762917482</v>
       </c>
       <c r="T15">
-        <v>0.0356634023321445</v>
+        <v>0.03489625491237574</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.9286208728878</v>
+        <v>15.248849</v>
       </c>
       <c r="H16">
-        <v>14.9286208728878</v>
+        <v>45.746547</v>
       </c>
       <c r="I16">
-        <v>0.1446183877886271</v>
+        <v>0.1396744381232708</v>
       </c>
       <c r="J16">
-        <v>0.1446183877886271</v>
+        <v>0.1420296279836289</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N16">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O16">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P16">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q16">
-        <v>153.4919957527534</v>
+        <v>196.3476335882985</v>
       </c>
       <c r="R16">
-        <v>153.4919957527534</v>
+        <v>1178.085801529791</v>
       </c>
       <c r="S16">
-        <v>0.01081173241858085</v>
+        <v>0.01145757749144659</v>
       </c>
       <c r="T16">
-        <v>0.01081173241858085</v>
+        <v>0.007985536179599991</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.1740489248146</v>
+        <v>27.73836633333333</v>
       </c>
       <c r="H17">
-        <v>26.1740489248146</v>
+        <v>83.215099</v>
       </c>
       <c r="I17">
-        <v>0.2535564932378857</v>
+        <v>0.2540743063339262</v>
       </c>
       <c r="J17">
-        <v>0.2535564932378857</v>
+        <v>0.258358506350017</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N17">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O17">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P17">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q17">
-        <v>680.2751655094999</v>
+        <v>921.2311446542526</v>
       </c>
       <c r="R17">
-        <v>680.2751655094999</v>
+        <v>8291.080301888274</v>
       </c>
       <c r="S17">
-        <v>0.04791750230638706</v>
+        <v>0.05375708906959387</v>
       </c>
       <c r="T17">
-        <v>0.04791750230638706</v>
+        <v>0.05620025437257877</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>26.1740489248146</v>
+        <v>27.73836633333333</v>
       </c>
       <c r="H18">
-        <v>26.1740489248146</v>
+        <v>83.215099</v>
       </c>
       <c r="I18">
-        <v>0.2535564932378857</v>
+        <v>0.2540743063339262</v>
       </c>
       <c r="J18">
-        <v>0.2535564932378857</v>
+        <v>0.258358506350017</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N18">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O18">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P18">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q18">
-        <v>1223.456893939138</v>
+        <v>1419.490074841339</v>
       </c>
       <c r="R18">
-        <v>1223.456893939138</v>
+        <v>12775.41067357205</v>
       </c>
       <c r="S18">
-        <v>0.08617836062438926</v>
+        <v>0.08283225640975193</v>
       </c>
       <c r="T18">
-        <v>0.08617836062438926</v>
+        <v>0.08659683701355404</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>26.1740489248146</v>
+        <v>27.73836633333333</v>
       </c>
       <c r="H19">
-        <v>26.1740489248146</v>
+        <v>83.215099</v>
       </c>
       <c r="I19">
-        <v>0.2535564932378857</v>
+        <v>0.2540743063339262</v>
       </c>
       <c r="J19">
-        <v>0.2535564932378857</v>
+        <v>0.258358506350017</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N19">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O19">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P19">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q19">
-        <v>539.1478294855646</v>
+        <v>615.6392732925098</v>
       </c>
       <c r="R19">
-        <v>539.1478294855646</v>
+        <v>5540.753459632588</v>
       </c>
       <c r="S19">
-        <v>0.03797671688265876</v>
+        <v>0.03592472469170196</v>
       </c>
       <c r="T19">
-        <v>0.03797671688265876</v>
+        <v>0.03755744034660701</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>26.1740489248146</v>
+        <v>27.73836633333333</v>
       </c>
       <c r="H20">
-        <v>26.1740489248146</v>
+        <v>83.215099</v>
       </c>
       <c r="I20">
-        <v>0.2535564932378857</v>
+        <v>0.2540743063339262</v>
       </c>
       <c r="J20">
-        <v>0.2535564932378857</v>
+        <v>0.258358506350017</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N20">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O20">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P20">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q20">
-        <v>887.6963584498233</v>
+        <v>1040.526073019102</v>
       </c>
       <c r="R20">
-        <v>887.6963584498233</v>
+        <v>9364.734657171915</v>
       </c>
       <c r="S20">
-        <v>0.06252792172933848</v>
+        <v>0.0607183692291643</v>
       </c>
       <c r="T20">
-        <v>0.06252792172933848</v>
+        <v>0.06347791249168123</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>26.1740489248146</v>
+        <v>27.73836633333333</v>
       </c>
       <c r="H21">
-        <v>26.1740489248146</v>
+        <v>83.215099</v>
       </c>
       <c r="I21">
-        <v>0.2535564932378857</v>
+        <v>0.2540743063339262</v>
       </c>
       <c r="J21">
-        <v>0.2535564932378857</v>
+        <v>0.258358506350017</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N21">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O21">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P21">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q21">
-        <v>269.114410541183</v>
+        <v>357.1654876479745</v>
       </c>
       <c r="R21">
-        <v>269.114410541183</v>
+        <v>2142.992925887847</v>
       </c>
       <c r="S21">
-        <v>0.01895599169511216</v>
+        <v>0.02084186693371414</v>
       </c>
       <c r="T21">
-        <v>0.01895599169511216</v>
+        <v>0.01452606212559595</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.41859708504452</v>
+        <v>5.431107000000001</v>
       </c>
       <c r="H22">
-        <v>5.41859708504452</v>
+        <v>10.862214</v>
       </c>
       <c r="I22">
-        <v>0.05249170577695213</v>
+        <v>0.0497471526285271</v>
       </c>
       <c r="J22">
-        <v>0.05249170577695213</v>
+        <v>0.03372399262175058</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N22">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O22">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P22">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q22">
-        <v>140.8317467215885</v>
+        <v>180.374895126294</v>
       </c>
       <c r="R22">
-        <v>140.8317467215885</v>
+        <v>1082.249370757764</v>
       </c>
       <c r="S22">
-        <v>0.009919964582699432</v>
+        <v>0.01052551182131604</v>
       </c>
       <c r="T22">
-        <v>0.009919964582699432</v>
+        <v>0.007335918567487212</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.41859708504452</v>
+        <v>5.431107000000001</v>
       </c>
       <c r="H23">
-        <v>5.41859708504452</v>
+        <v>10.862214</v>
       </c>
       <c r="I23">
-        <v>0.05249170577695213</v>
+        <v>0.0497471526285271</v>
       </c>
       <c r="J23">
-        <v>0.05249170577695213</v>
+        <v>0.03372399262175058</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N23">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O23">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P23">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q23">
-        <v>253.2821719031456</v>
+        <v>277.932823774012</v>
       </c>
       <c r="R23">
-        <v>253.2821719031456</v>
+        <v>1667.596942644072</v>
       </c>
       <c r="S23">
-        <v>0.0178407939487925</v>
+        <v>0.01621836131972151</v>
       </c>
       <c r="T23">
-        <v>0.0178407939487925</v>
+        <v>0.01130363824195348</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.41859708504452</v>
+        <v>5.431107000000001</v>
       </c>
       <c r="H24">
-        <v>5.41859708504452</v>
+        <v>10.862214</v>
       </c>
       <c r="I24">
-        <v>0.05249170577695213</v>
+        <v>0.0497471526285271</v>
       </c>
       <c r="J24">
-        <v>0.05249170577695213</v>
+        <v>0.03372399262175058</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N24">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O24">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P24">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q24">
-        <v>111.615320413376</v>
+        <v>120.540724225559</v>
       </c>
       <c r="R24">
-        <v>111.615320413376</v>
+        <v>723.244345353354</v>
       </c>
       <c r="S24">
-        <v>0.007862005912460997</v>
+        <v>0.007033976745476516</v>
       </c>
       <c r="T24">
-        <v>0.007862005912460997</v>
+        <v>0.004902439091457184</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.41859708504452</v>
+        <v>5.431107000000001</v>
       </c>
       <c r="H25">
-        <v>5.41859708504452</v>
+        <v>10.862214</v>
       </c>
       <c r="I25">
-        <v>0.05249170577695213</v>
+        <v>0.0497471526285271</v>
       </c>
       <c r="J25">
-        <v>0.05249170577695213</v>
+        <v>0.03372399262175058</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N25">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O25">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P25">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q25">
-        <v>183.7724424722309</v>
+        <v>203.732562002596</v>
       </c>
       <c r="R25">
-        <v>183.7724424722309</v>
+        <v>1222.395372015576</v>
       </c>
       <c r="S25">
-        <v>0.01294463899680685</v>
+        <v>0.01188851413188004</v>
       </c>
       <c r="T25">
-        <v>0.01294463899680685</v>
+        <v>0.008285884148956129</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.41859708504452</v>
+        <v>5.431107000000001</v>
       </c>
       <c r="H26">
-        <v>5.41859708504452</v>
+        <v>10.862214</v>
       </c>
       <c r="I26">
-        <v>0.05249170577695213</v>
+        <v>0.0497471526285271</v>
       </c>
       <c r="J26">
-        <v>0.05249170577695213</v>
+        <v>0.03372399262175058</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N26">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O26">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P26">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q26">
-        <v>55.71253284849806</v>
+        <v>69.93216387773552</v>
       </c>
       <c r="R26">
-        <v>55.71253284849806</v>
+        <v>279.7286555109421</v>
       </c>
       <c r="S26">
-        <v>0.003924302336192353</v>
+        <v>0.004080788610133002</v>
       </c>
       <c r="T26">
-        <v>0.003924302336192353</v>
+        <v>0.001896112571896575</v>
       </c>
     </row>
   </sheetData>
